--- a/mock_test.xlsx
+++ b/mock_test.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -1187,7 +1187,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Tian</t>
@@ -1213,8 +1212,6 @@
           <t>WA</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>Jawa Timur</t>
@@ -1240,7 +1237,6 @@
           <t>Banyuwangi</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>Licin</t>
@@ -1251,13 +1247,233 @@
           <t>Lajang</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
           <t>Tian is open to conversations about faith and personal issues; schedule for further discussion via WhatsApp.</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
+        <is>
+          <t>COD mengekspresikan perasaan gelisah dan mendiskusikan hubungannya dengan dosa, menunjukkan keterbukaan untuk mencari bimbingan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tian</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Open (Terbuka)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>082143633180</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Spiritual (Rohani)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Jawa Timur</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>KABUPATEN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Banyuwangi</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Licin</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Lajang</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Tian is open to conversations about faith and personal issues; schedule for further discussion via WhatsApp.</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>COD mengekspresikan perasaan gelisah dan mendiskusikan hubungannya dengan dosa, menunjukkan keterbukaan untuk mencari bimbingan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tian</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Open (Terbuka)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>082143633180</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Spiritual (Rohani)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Jawa Timur</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>KABUPATEN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Banyuwangi</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Licin</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Lajang</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Tian is open to conversations about faith and personal issues; schedule for further discussion via WhatsApp.</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>COD mengekspresikan perasaan gelisah dan mendiskusikan hubungannya dengan dosa, menunjukkan keterbukaan untuk mencari bimbingan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tian</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Open (Terbuka)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>082143633180</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Spiritual (Rohani)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Jawa Timur</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>KABUPATEN</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Banyuwangi</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Licin</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Lajang</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Tian is open to conversations about faith and personal issues; schedule for further discussion via WhatsApp.</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>COD mengekspresikan perasaan gelisah dan mendiskusikan hubungannya dengan dosa, menunjukkan keterbukaan untuk mencari bimbingan.</t>
         </is>
